--- a/40. Projeto 2 - Automação Web - Aplicação de Mercado de Trabalho/buscas.xlsx
+++ b/40. Projeto 2 - Automação Web - Aplicação de Mercado de Trabalho/buscas.xlsx
@@ -28,7 +28,7 @@
     <t>Preço máximo</t>
   </si>
   <si>
-    <t>Iphone 14 128 gb</t>
+    <t>iphone 14 128 gb</t>
   </si>
   <si>
     <t>mini watch vitrine usado</t>
@@ -464,10 +464,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="4">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="D3" s="4">
-        <v>4500</v>
+        <v>3500</v>
       </c>
     </row>
   </sheetData>
